--- a/medicine/Psychotrope/Louis_Roederer/Louis_Roederer.xlsx
+++ b/medicine/Psychotrope/Louis_Roederer/Louis_Roederer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Roederer, né à Strasbourg le 6 avril 1809 et mort le 18 mai 1870 à Souvilly (Eure), a donné son nom à la maison de Champagne Louis Roederer qu'il a dirigée de 1833 à 1870.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien conseiller général, il peut être considéré comme l’un des négociants de Reims qui ont donné le plus d’extension au commerce des vins de Champagne. Lieutenant de louveterie de l’arrondissement de Reims, il est aussi renommé pour ses chevaux et ses équipages de chasse pouvant rivaliser avec les meutes des princes.
 C'est le père de Louis Roederer II, né de son mariage en 1834 avec Louise Félicité Béchet (1817-1854) et qui lui succède à la tête de la maison de Champagne à sa mort en 1870.
